--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2528.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2528.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.590542639937392</v>
+        <v>2.153579950332642</v>
       </c>
       <c r="B1">
-        <v>3.66061648378425</v>
+        <v>2.216450929641724</v>
       </c>
       <c r="C1">
-        <v>3.198080956131975</v>
+        <v>2.296318531036377</v>
       </c>
       <c r="D1">
-        <v>1.655428085281369</v>
+        <v>3.051946640014648</v>
       </c>
       <c r="E1">
-        <v>1.627417009155274</v>
+        <v>2.759232759475708</v>
       </c>
     </row>
   </sheetData>
